--- a/lw3/graphics.xlsx
+++ b/lw3/graphics.xlsx
@@ -10,10 +10,7 @@
     <sheet name="CPU x1" sheetId="1" r:id="rId1"/>
     <sheet name="CPU x2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -116,13 +113,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,11 +444,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1488304080"/>
-        <c:axId val="-1488305168"/>
+        <c:axId val="-1392964192"/>
+        <c:axId val="-1392969632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1488304080"/>
+        <c:axId val="-1392964192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,12 +505,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1488305168"/>
+        <c:crossAx val="-1392969632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1488305168"/>
+        <c:axId val="-1392969632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +567,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1488304080"/>
+        <c:crossAx val="-1392964192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -955,11 +952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1382840368"/>
-        <c:axId val="-1382840912"/>
+        <c:axId val="-1392969088"/>
+        <c:axId val="-1392976704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1382840368"/>
+        <c:axId val="-1392969088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,12 +1013,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1382840912"/>
+        <c:crossAx val="-1392976704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1382840912"/>
+        <c:axId val="-1392976704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1075,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1382840368"/>
+        <c:crossAx val="-1392969088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1463,11 +1460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1266047952"/>
-        <c:axId val="-1266048496"/>
+        <c:axId val="-1392972352"/>
+        <c:axId val="-1392978336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1266047952"/>
+        <c:axId val="-1392972352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,12 +1521,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1266048496"/>
+        <c:crossAx val="-1392978336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1266048496"/>
+        <c:axId val="-1392978336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1583,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1266047952"/>
+        <c:crossAx val="-1392972352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1971,11 +1968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1410046112"/>
-        <c:axId val="-1410045024"/>
+        <c:axId val="-1392964736"/>
+        <c:axId val="-1392956576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1410046112"/>
+        <c:axId val="-1392964736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,12 +2029,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1410045024"/>
+        <c:crossAx val="-1392956576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1410045024"/>
+        <c:axId val="-1392956576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2091,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1410046112"/>
+        <c:crossAx val="-1392964736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4529,304 +4526,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4">
-            <v>1</v>
-          </cell>
-          <cell r="B4">
-            <v>3191515</v>
-          </cell>
-          <cell r="C4">
-            <v>2</v>
-          </cell>
-          <cell r="D4">
-            <v>3191515</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1</v>
-          </cell>
-          <cell r="B5">
-            <v>3192124</v>
-          </cell>
-          <cell r="C5">
-            <v>2</v>
-          </cell>
-          <cell r="D5">
-            <v>3192124</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1</v>
-          </cell>
-          <cell r="B6">
-            <v>3192740</v>
-          </cell>
-          <cell r="C6">
-            <v>2</v>
-          </cell>
-          <cell r="D6">
-            <v>3192732</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1</v>
-          </cell>
-          <cell r="B7">
-            <v>3193373</v>
-          </cell>
-          <cell r="C7">
-            <v>2</v>
-          </cell>
-          <cell r="D7">
-            <v>3193365</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1</v>
-          </cell>
-          <cell r="B8">
-            <v>3193982</v>
-          </cell>
-          <cell r="C8">
-            <v>2</v>
-          </cell>
-          <cell r="D8">
-            <v>3193982</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1</v>
-          </cell>
-          <cell r="B9">
-            <v>3194591</v>
-          </cell>
-          <cell r="C9">
-            <v>2</v>
-          </cell>
-          <cell r="D9">
-            <v>3194583</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1</v>
-          </cell>
-          <cell r="B10">
-            <v>3195200</v>
-          </cell>
-          <cell r="C10">
-            <v>2</v>
-          </cell>
-          <cell r="D10">
-            <v>3195192</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1</v>
-          </cell>
-          <cell r="B11">
-            <v>3195810</v>
-          </cell>
-          <cell r="C11">
-            <v>2</v>
-          </cell>
-          <cell r="D11">
-            <v>3195794</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1</v>
-          </cell>
-          <cell r="B12">
-            <v>3196428</v>
-          </cell>
-          <cell r="C12">
-            <v>2</v>
-          </cell>
-          <cell r="D12">
-            <v>3196420</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1</v>
-          </cell>
-          <cell r="B13">
-            <v>3197030</v>
-          </cell>
-          <cell r="C13">
-            <v>2</v>
-          </cell>
-          <cell r="D13">
-            <v>3197014</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1</v>
-          </cell>
-          <cell r="B14">
-            <v>3197615</v>
-          </cell>
-          <cell r="C14">
-            <v>2</v>
-          </cell>
-          <cell r="D14">
-            <v>3197607</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1</v>
-          </cell>
-          <cell r="B15">
-            <v>3198208</v>
-          </cell>
-          <cell r="C15">
-            <v>2</v>
-          </cell>
-          <cell r="D15">
-            <v>3198200</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1</v>
-          </cell>
-          <cell r="B16">
-            <v>3198792</v>
-          </cell>
-          <cell r="C16">
-            <v>2</v>
-          </cell>
-          <cell r="D16">
-            <v>3198792</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1</v>
-          </cell>
-          <cell r="B17">
-            <v>3199394</v>
-          </cell>
-          <cell r="C17">
-            <v>2</v>
-          </cell>
-          <cell r="D17">
-            <v>3199394</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1</v>
-          </cell>
-          <cell r="B18">
-            <v>3199987</v>
-          </cell>
-          <cell r="C18">
-            <v>2</v>
-          </cell>
-          <cell r="D18">
-            <v>3199987</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1</v>
-          </cell>
-          <cell r="B19">
-            <v>3200604</v>
-          </cell>
-          <cell r="C19">
-            <v>2</v>
-          </cell>
-          <cell r="D19">
-            <v>3200588</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1</v>
-          </cell>
-          <cell r="B20">
-            <v>3201198</v>
-          </cell>
-          <cell r="C20">
-            <v>2</v>
-          </cell>
-          <cell r="D20">
-            <v>3201190</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1</v>
-          </cell>
-          <cell r="B21">
-            <v>3201807</v>
-          </cell>
-          <cell r="C21">
-            <v>2</v>
-          </cell>
-          <cell r="D21">
-            <v>3201807</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1</v>
-          </cell>
-          <cell r="B22">
-            <v>3202408</v>
-          </cell>
-          <cell r="C22">
-            <v>2</v>
-          </cell>
-          <cell r="D22">
-            <v>3202417</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1</v>
-          </cell>
-          <cell r="B23">
-            <v>3203009</v>
-          </cell>
-          <cell r="C23">
-            <v>2</v>
-          </cell>
-          <cell r="D23">
-            <v>3203009</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -5116,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:J18"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,450 +4832,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>302</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>269</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>142</v>
       </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
         <v>2242</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>572</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
         <v>540</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>281</v>
       </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
         <v>2382</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
         <v>874</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>842</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>420</v>
       </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
         <v>2521</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
         <v>1159</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>1125</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>561</v>
       </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
         <v>2663</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
         <v>1465</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
         <v>1430</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>701</v>
       </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
         <v>2807</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
         <v>1742</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
         <v>1707</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>840</v>
       </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
         <v>2952</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
         <v>2013</v>
       </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>1980</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>981</v>
       </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
         <v>3096</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
         <v>2316</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
         <v>2282</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>1121</v>
       </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
         <v>3237</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
         <v>2585</v>
       </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
         <v>2553</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>1261</v>
       </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
         <v>3378</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
         <v>2887</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
         <v>2856</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>1399</v>
       </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
         <v>3517</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
         <v>3159</v>
       </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
         <v>3127</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>1540</v>
       </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
         <v>3657</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
         <v>3428</v>
       </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
         <v>3397</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>1680</v>
       </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
         <v>3795</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
         <v>3730</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
         <v>3699</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>1820</v>
       </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
         <v>3937</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
         <v>4002</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>3969</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>1960</v>
       </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
         <v>4078</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
         <v>4276</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <v>4270</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
         <v>4218</v>
       </c>
     </row>
@@ -5615,450 +5314,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>158</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>160</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>158</v>
       </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>315</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
         <v>317</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>316</v>
       </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
         <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
         <v>472</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>472</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>473</v>
       </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
         <v>629</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>630</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>630</v>
       </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
         <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
         <v>787</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
         <v>787</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>787</v>
       </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
         <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
         <v>944</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
         <v>946</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>944</v>
       </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
         <v>949</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
         <v>1101</v>
       </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>1104</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>1102</v>
       </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
         <v>1106</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
         <v>1259</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
         <v>1263</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>1260</v>
       </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
         <v>1267</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
         <v>1416</v>
       </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
         <v>1422</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>1417</v>
       </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
         <v>1425</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
         <v>1573</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
         <v>1580</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>1574</v>
       </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
         <v>1583</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
         <v>1730</v>
       </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
         <v>1739</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>1731</v>
       </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
         <v>1739</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
         <v>1889</v>
       </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
         <v>1901</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>1888</v>
       </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
         <v>1897</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
         <v>2048</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
         <v>2060</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>2046</v>
       </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
         <v>2054</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
         <v>2206</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>2218</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>2203</v>
       </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
         <v>2213</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
         <v>2362</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <v>2375</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <v>2360</v>
       </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
         <v>2374</v>
       </c>
     </row>
